--- a/CourseWork2/CourseWork2/bin/Debug/schedule/schedule2.xlsx
+++ b/CourseWork2/CourseWork2/bin/Debug/schedule/schedule2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\source\repos\CourseWork2\CourseWork2\bin\Debug\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\OneDrive\Рабочий стол\Пары\Курсовая, 3 курс\Визуальное программирование\Project\CourseWork2\CourseWork2\bin\Debug\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6ECBF4-CBA9-4179-9CC0-2FD5255D12BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA8EEB-9075-4613-BA4C-49D010AACD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="17928" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="1884" windowWidth="17928" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
